--- a/notebooks/nigel/03062025_Itasca_freight_rates_table_DIT_SPN_SPCP_v1630.xlsx
+++ b/notebooks/nigel/03062025_Itasca_freight_rates_table_DIT_SPN_SPCP_v1630.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhuw\OneDrive\Desktop\10. Application Development\Diverzify\diverzify_freight_analysis\notebooks\nigel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A265AFC6-4715-4F6C-874D-51A277D1416F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872E66B-580F-43BE-BD71-2B1FCF8560B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIT" sheetId="1" r:id="rId1"/>
-    <sheet name="SPCP" sheetId="2" r:id="rId2"/>
-    <sheet name="SPN" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="SPCP" sheetId="2" r:id="rId3"/>
+    <sheet name="SPN" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DIT!$B$2:$R$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="42">
   <si>
     <t>site_description</t>
   </si>
@@ -170,7 +174,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,187 +241,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1023,1655 +884,1640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="B2:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:P36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H3" s="10">
         <v>0.43859999999999999</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I3" s="10">
         <v>0.43080000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J3" s="10">
         <v>0.42299999999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K3" s="10">
         <v>0.4153</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q3" s="10">
         <v>0.40749999999999997</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H4" s="12">
         <v>1.734966676734772</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I4" s="12">
         <v>1.021695621584364</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J4" s="12">
         <v>0.83059925611842556</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K4" s="12">
         <v>2.8165358391107498</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L4" s="12">
         <v>0.48273790172766101</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M4" s="12">
         <v>0.16596584285242799</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N4" s="12">
         <v>0.15980143079445999</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H5" s="12">
         <v>1.148742646103591</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I5" s="12">
         <v>1.0114484160124679</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J5" s="12">
         <v>0.8260221667841019</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K5" s="12">
         <v>2.8165358391107498</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L5" s="12">
         <v>0.48273790172766101</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M5" s="12">
         <v>0.16596584285242799</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N5" s="12">
         <v>0.15980143079445999</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H6" s="12">
         <v>0.98660128776094635</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I6" s="12">
         <v>0.47855558585486951</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J6" s="12">
         <v>0.46989203810850849</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K6" s="12">
         <v>0.461336978497352</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L6" s="12">
         <v>0.45267218558424599</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M6" s="12">
         <v>0.190923129506443</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N6" s="12">
         <v>0.200149764748904</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H7" s="12">
         <v>0.57161442384425454</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I7" s="12">
         <v>0.47855538852699331</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J7" s="12">
         <v>0.46989202262383101</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K7" s="12">
         <v>0.46133697849735189</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L7" s="12">
         <v>0.45267218558424599</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M7" s="12">
         <v>0.190923129506443</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N7" s="12">
         <v>0.200149764748904</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H8" s="14">
         <v>0.57712822225933691</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I8" s="14">
         <v>0.5328930274854744</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J8" s="14">
         <v>0.35613014416027089</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K8" s="14">
         <v>2.355198860613398</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L8" s="14">
         <v>3.0065716143415019E-2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M8" s="14">
         <v>-2.4957286654015001E-2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N8" s="14">
         <v>-4.034833395444401E-2</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H9" s="6">
         <v>0.74560000000000004</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I9" s="6">
         <v>0.73240000000000005</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J9" s="6">
         <v>0.71919999999999995</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K9" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H10" s="3">
         <v>2.742050869977005</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I10" s="3">
         <v>1.254625044650117</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J10" s="3">
         <v>0.70682416565857797</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <v>0.37989670800688602</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H11" s="3">
         <v>1.680689326133461</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I11" s="3">
         <v>1.1799003272048529</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J11" s="3">
         <v>0.70682416565857797</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
         <v>0.37989670800688602</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H12" s="3">
         <v>1.67831892877808</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I12" s="3">
         <v>0.81358396869195337</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J12" s="3">
         <v>0.79892549633530197</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>0.28251163045834399</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H13" s="3">
         <v>0.92289251280010876</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I13" s="3">
         <v>0.81358391330960478</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J13" s="3">
         <v>0.79892549633530197</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>0.28251163045834399</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3" t="s">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H14" s="8">
         <v>0.75779681333335225</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I14" s="8">
         <v>0.36631641389524788</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J14" s="8">
         <v>-9.2101330676723991E-2</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8">
         <v>9.7385077548542032E-2</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="8" t="s">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G15" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H15" s="3">
         <v>0.28270000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I15" s="3">
         <v>0.23250000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J15" s="3">
         <v>0.17480000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K15" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L15" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M15" s="3">
         <v>9.849999999999999E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N15" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O15" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P15" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q15" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H16" s="3">
         <v>0.87581027569040926</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I16" s="3">
         <v>0.21529349961701219</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J16" s="3">
         <v>0.19840412577354971</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K16" s="3">
         <v>4.60069105511932E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L16" s="3">
         <v>3.4314041469066997E-2</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H17" s="3">
         <v>0.49996988616972088</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I17" s="3">
         <v>0.2201679287206286</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J17" s="3">
         <v>0.20022035749067871</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K17" s="3">
         <v>4.4962608387325471E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L17" s="3">
         <v>3.4314041469066997E-2</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G18" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H18" s="3">
         <v>1.3638255782259421</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I18" s="3">
         <v>0.2324440755830057</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J18" s="3">
         <v>0.17475931352422269</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K18" s="3">
         <v>0.13876598579767299</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L18" s="3">
         <v>0.13876636432002701</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H19" s="3">
         <v>0.69388287727610232</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I19" s="3">
         <v>0.23244403168394631</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J19" s="3">
         <v>0.1747592299292689</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K19" s="3">
         <v>0.13876599619636959</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L19" s="3">
         <v>0.13876636432002701</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H20" s="8">
         <v>-0.19391299110638141</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I20" s="8">
         <v>-1.2276102963317711E-2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J20" s="8">
         <v>2.5461127561409721E-2</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K20" s="8">
         <v>-9.3803387809044153E-2</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L20" s="8">
         <v>-0.10445232285096</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="8" t="s">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H21" s="3">
         <v>0.28270000000000001</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I21" s="3">
         <v>0.23250000000000001</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J21" s="3">
         <v>0.17480000000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K21" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L21" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M21" s="3">
         <v>9.849999999999999E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N21" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O21" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P21" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q21" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H22" s="3">
         <v>0.94774525155419553</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I22" s="3">
         <v>0.18994151616547231</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J22" s="3">
         <v>0.19939186000523371</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K22" s="3">
         <v>0.1039766193828985</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L22" s="3">
         <v>0.2055653884440318</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M22" s="3">
         <v>8.9708681691907405E-2</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <v>6.5300385002446601E-2</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3" t="s">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H23" s="3">
         <v>1.469941100447042</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I23" s="3">
         <v>0.1869400103876403</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J23" s="3">
         <v>0.20146443747358059</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K23" s="3">
         <v>0.1035211877492925</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L23" s="3">
         <v>0.20328986680853961</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M23" s="3">
         <v>8.9708681691907405E-2</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3">
         <v>6.5300385002446601E-2</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3" t="s">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H24" s="3">
         <v>1.019891241157471</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I24" s="3">
         <v>0.23244640253861359</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J24" s="3">
         <v>0.174756281863644</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K24" s="3">
         <v>0.13876820399044221</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L24" s="3">
         <v>0.138766679389838</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M24" s="3">
         <v>9.8476717943282097E-2</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
         <v>7.1682931558198104E-2</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3" t="s">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H25" s="3">
         <v>0.49952329498506232</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I25" s="3">
         <v>0.2324461708905127</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J25" s="3">
         <v>0.17475639057598549</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K25" s="3">
         <v>0.13876819705186891</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L25" s="3">
         <v>0.13876668454328059</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M25" s="3">
         <v>9.8476717943282097E-2</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3">
         <v>7.1682931558198104E-2</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3" t="s">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H26" s="8">
         <v>0.97041780546198009</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I26" s="8">
         <v>-4.55061605028724E-2</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J26" s="8">
         <v>2.6708046897595091E-2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="K26" s="8">
         <v>-3.524700930257639E-2</v>
       </c>
-      <c r="K25" s="9">
+      <c r="L26" s="8">
         <v>6.4523182265259021E-2</v>
       </c>
-      <c r="L25" s="9">
+      <c r="M26" s="8">
         <v>-8.7680362513746918E-3</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9">
+      <c r="N26" s="8"/>
+      <c r="O26" s="8">
         <v>-6.3825465557515032E-3</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="8" t="s">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E27" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H27" s="3">
         <v>0.28270000000000001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I27" s="3">
         <v>0.23250000000000001</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J27" s="3">
         <v>0.17480000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K27" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L27" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M27" s="3">
         <v>9.849999999999999E-2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N27" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O27" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P27" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q27" s="3">
         <v>7.17E-2</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E28" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H28" s="3">
         <v>2.4812994812994802</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I28" s="3">
         <v>0.31400757243484051</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H29" s="3">
         <v>2.4812994812994802</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I29" s="3">
         <v>0.31483909325121529</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H30" s="3">
         <v>0.31452361452361399</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I30" s="3">
         <v>0.23244963480800049</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D31" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F31" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H31" s="3">
         <v>0.31452361452361399</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I31" s="3">
         <v>0.23244965470981849</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="3" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H32" s="8">
         <v>2.1667758667758661</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I32" s="8">
         <v>8.2389438541396881E-2</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="8" t="s">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H33" s="4">
         <v>38</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J33" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K33" s="4">
         <v>1</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M33" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N33" s="4">
         <v>1</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H34" s="4">
         <v>95</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I34" s="4">
         <v>9</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J34" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M34" s="4">
         <v>1</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N34" s="4">
         <v>0</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P34" s="4">
         <v>0</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H35" s="4">
         <v>7</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I35" s="4">
         <v>4</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J35" s="4">
         <v>3</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K35" s="4">
         <v>2</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L35" s="4">
         <v>2</v>
       </c>
-      <c r="L34" s="5">
+      <c r="M35" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N35" s="4">
         <v>0</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O35" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P35" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H36" s="4">
         <v>9</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I36" s="4">
         <v>8</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J36" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K36" s="4">
         <v>6</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L36" s="4">
         <v>5</v>
       </c>
-      <c r="L35" s="5">
+      <c r="M36" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N36" s="4">
         <v>0</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O36" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P36" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="G37" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J37" s="4">
         <v>1</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K37" s="4">
         <v>1</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="L36" s="5">
+      <c r="M37" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N37" s="4">
         <v>1</v>
       </c>
-      <c r="N36" s="5">
+      <c r="O37" s="4">
         <v>0</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P37" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R37" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:P2">
+  <conditionalFormatting sqref="H3:Q3">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -2683,63 +2529,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P7">
-    <cfRule type="cellIs" dxfId="45" priority="98" operator="lessThan">
+  <conditionalFormatting sqref="H4:Q4">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:Q5">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:Q6">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:Q7">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:Q8">
+    <cfRule type="cellIs" dxfId="29" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:P3">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:P4">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:P6">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:P8">
+  <conditionalFormatting sqref="H9:Q9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2751,63 +2597,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:P13">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="lessThan">
+  <conditionalFormatting sqref="H10:Q10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:Q11">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:Q12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:Q13">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:Q14">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:P9">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:P10">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:P11">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:P12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:P14">
+  <conditionalFormatting sqref="H15:Q15">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2819,7 +2665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:P15">
+  <conditionalFormatting sqref="H16:Q16">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2831,7 +2677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:P16">
+  <conditionalFormatting sqref="H17:Q17">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2843,7 +2689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:P17">
+  <conditionalFormatting sqref="H18:Q18">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2855,7 +2701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:P18">
+  <conditionalFormatting sqref="H19:Q19">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2867,187 +2713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:P20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:P21">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:P22">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:P23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:P24">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:P26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:P27">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:P28">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:P29">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:P30">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:P32">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:P33">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:P34">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:P35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:P36">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:P19">
+  <conditionalFormatting sqref="H20:Q20">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3055,7 +2721,67 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:P25">
+  <conditionalFormatting sqref="H21:Q21">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:Q22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:Q23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:Q24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:Q25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:Q26">
     <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3063,12 +2789,132 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:P31">
+  <conditionalFormatting sqref="H27:Q27">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:Q28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:Q29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:Q30">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:Q31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:Q32">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:Q33">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:Q34">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:Q35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:Q36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:Q37">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3076,6 +2922,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78DF2BC-C445-40EF-A0AA-36C860AC55FF}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.148742646103591</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.57161442384425454</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.0114484160124679</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.47855538852699331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.8260221667841019</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.46989202262383101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2.8165358391107498</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.46133697849735189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.48273790172766101</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.45267218558424599</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.16596584285242799</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.190923129506443</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.15980143079445999</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.200149764748904</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
@@ -3153,1677 +3147,1662 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.50729999999999997</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.48920000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.4819</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.47470000000000001</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.46010000000000001</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5.9042223235336548</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.228246439581433</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>1.0788330160136981</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1.2702277465477121</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1.04833770491803</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>0.170476028118068</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>3.3053281975731088</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1.228134661589499</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1.067437580797054</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>1.243194302463946</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>1.04833770491803</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
         <v>0.170476028118068</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>2.7485056274840209</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.54342474874881097</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.53531838976232349</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.52732094690061504</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.511101639344262</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
         <v>0.21509598562287</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.709599679906184</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.54342455587046201</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.53531835585557708</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.52732091279037563</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.511101639344262</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>0.21509598562287</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2.5957285176669251</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.68471010571903657</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.5321192249414769</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.71587338967356995</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>0.53723606557376802</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>-4.4619957504801987E-2</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.86229999999999996</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.83160000000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.81920000000000004</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>0.78220000000000001</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2.4497765238754439</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>1.341111427731533</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1.264408761849541</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>1.0102980938300199</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.94080720047388633</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.690530840811773</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.3343690132296731</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1.2266158579261559</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>1.0114331167833319</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.91598252118643886</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.76872110408218</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.9237830163540357</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.91000740356274412</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.77566913610296861</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.46355014796816929</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.0652997088961771</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.92378283964316188</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.91000740128445834</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.76508068723444522</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.45753326566649472</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.62523113191559609</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.41058617358651073</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.31660845664169762</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0.2463524295488867</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>0.4584492555199442</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="8" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.26529999999999998</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.24179999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.19270000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.161</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.161</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>0.1258</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>0.1057</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.1057</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.1057</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>0.1057</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.61989005813836418</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.57080964985960614</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.49778284583455862</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.39267571002833068</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.18393751162970101</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.18561903142401731</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>0.11612213369432881</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>9.6352261947440093E-2</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
         <v>8.20567885832377E-2</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.63658383243439887</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.55961034872572657</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.51434265452354289</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.39452602512215362</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.17732923631026321</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.18559483005665789</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.11836370110257061</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>9.6352261947440093E-2</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
         <v>8.20567885832377E-2</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.49613124326968078</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.24174307412584309</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.19265375413367061</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.1609622611118878</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.1609625396863979</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.12577022183278991</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.1056750267285104</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>9.5477280224584293E-2</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
         <v>7.1850250494295595E-2</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>0.39341517487839511</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.2417426269622078</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.1926537649603581</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.1609622449316771</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.1609624954018293</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>0.12577025575968509</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>0.1056750280349346</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>9.5477280224584293E-2</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3">
         <v>7.1850250494295595E-2</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>0.24316865755600381</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0.3178677217635188</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>0.32168888956318481</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>0.23356378019047649</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>1.636674090843393E-2</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>5.9824574296972827E-2</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>1.268867306763595E-2</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>8.7498172285579989E-4</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
         <v>1.02065380889421E-2</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.26529999999999998</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.24179999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.19270000000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>0.161</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.161</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>0.1258</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>0.1057</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>0.1057</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>0.1057</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>0.1057</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.55267608216782482</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.40047266376203838</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.24540832928748521</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.24968596543969571</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.1582980159214766</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.216834596918101</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>0.142163284539502</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3" t="s">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.46797108560317602</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.37549127947254318</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.2469013932819159</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.25590245178766502</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.15850445405286009</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>0.216834596918101</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>0.14206682174838381</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3" t="s">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.56049928807389515</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.24174233736763179</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.19265497909293461</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.1609620400635349</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.16096249890271061</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.125770228036793</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>0.105675336907923</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3" t="s">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.46161801695975607</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.24174273120408901</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.1926549330693654</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.16096205346836329</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.16096248380259881</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>0.125770228036793</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>0.10567533158294661</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3" t="s">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>6.3530686434198902E-3</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>0.1337485482684542</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>5.4246460212550453E-2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>9.4940398319301705E-2</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>-2.4580297497386332E-3</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>9.1064368881308005E-2</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>3.6391490165437197E-2</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="8" t="s">
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>0.26529999999999998</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.24179999999999999</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>0.19270000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>0.161</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>0.161</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>0.1258</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>0.1057</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>0.1057</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>0.1057</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>0.1057</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.92667144539217228</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>0.47167784115003619</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>0.24984999910136521</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>0.31222007526460149</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>0.25192833837395873</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>0.15753726494565801</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>0.14337417300656319</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>7.4515234534202002E-2</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.94872208076836007</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.46372552224944669</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.24080842096933211</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>0.3240411375290323</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>0.2407789272549464</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>0.15642559702335879</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>0.13791091433235511</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>7.4515234534202002E-2</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>1.117359293227322</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>0.24174361063413979</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>0.19265445065109291</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0.1609625285568744</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>0.16096201841974969</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>0.1257702866707521</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>0.1049324214713878</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>7.3545109584413307E-2</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>0.54167812095347623</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>0.24174355013868579</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>0.19265448532460469</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>0.16096252647823781</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>0.16096199603465461</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>0.12577030140225451</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>0.1046873865635982</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>7.3545109584413307E-2</v>
       </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="3" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>0.40704395981488378</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>0.22198197211076101</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>4.8153935644727308E-2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>0.16307861105079449</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>7.9816931220291765E-2</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>3.0655295621104361E-2</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>3.3223527768756818E-2</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <v>9.701249497886949E-4</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="8" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>52</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>14</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>33</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>6</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>1</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>1</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>188</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>27</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>21</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>4</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>5</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>0</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <v>0</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>29</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>21</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>14</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>7</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>9</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>12</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>8</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>1</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>26</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>14</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>39</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>10</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>11</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>2</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>0</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>27</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>17</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>26</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>13</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>20</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>22</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <v>17</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>1</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
         <v>0</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4840,6 +4819,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G3:P3">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:P4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:P5">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:P6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G7:P7">
     <cfRule type="cellIs" dxfId="19" priority="39" operator="lessThan">
       <formula>0</formula>
@@ -4848,56 +4875,56 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:P3">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:P4">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:P6">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G8:P8">
     <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:P9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:P10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:P11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:P12">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4916,54 +4943,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:P9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:P10">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:P11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:P12">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G14:P14">
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -5014,186 +4993,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:P18">
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:P20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:P21">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:P22">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:P23">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:P24">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:P26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:P27">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:P28">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:P29">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:P30">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:P32">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:P33">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:P34">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:P35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:P36">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5212,6 +5011,66 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G20:P20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:P21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:P22">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:P23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:P24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G25:P25">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>0</formula>
@@ -5220,23 +5079,143 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G26:P26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:P27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:P28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:P29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:P30">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G31:P31">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:P32">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:P33">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:P34">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:P35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:P36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -5310,1697 +5289,1682 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.32019999999999998</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.31180000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.29920000000000002</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.2908</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.2823</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.87867279266096676</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
         <v>0.77</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.77006552716430299</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>9.2138340412711989E-2</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.69536881104748993</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>0.77</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.77006552716430299</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>9.2137021407163913E-2</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.63708008199543753</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>0.332364285714285</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.28893788771220102</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>9.6043248506307605E-2</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.41671943415291268</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>0.332364285714285</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.28893788771220102</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>9.6041873600084329E-2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.27864937689457719</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>0.43763571428571502</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.48112763945210202</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <v>-3.9048521929204161E-3</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.5444</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.53010000000000002</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.50860000000000005</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.49430000000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.48</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.48</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.48</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.48</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.48</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>0.48</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>8.7350526686050536</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.61106987167237459</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.57245504927463664</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.39573966695723528</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.2302991638599107</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.15488032457050399</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.115651541937404</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.89346051440797136</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.61575378894963517</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.58494728561269826</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.39987047441585633</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.23284194909040701</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.15488032457050399</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.115651541937404</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2.9383826829328399</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.58886129060637049</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.46240794690434373</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.28654135665850827</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.1743201664269837</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.118647888070907</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.114969673484796</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.71941818166355831</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.58886099118826585</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.44853466143458182</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.28406445017922283</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.17252680636481341</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.118647888070907</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.114969673484796</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.17404233274441311</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>2.6892797761369321E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.13641262417811639</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0.1158060242366334</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>6.0315142725593553E-2</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>3.6232436499597002E-2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>6.8186845260799489E-4</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="8" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.12239999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.1115</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>8.2899999999999988E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>4.9699999999999987E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.60651801917667392</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.1629202841557606</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>9.213467930586447E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>6.0707269832133273E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>4.2814959868358787E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>4.9932561010331923E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>3.2682348880152097E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>3.8681147133424118E-2</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.4286697337894686</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.15757678476110279</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>8.9616036655527573E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>5.985197640683395E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>4.2790328490470347E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>5.0808731943612163E-2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>3.121491301321044E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>3.9098851669315628E-2</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.96832137785962225</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.13784471044392041</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>8.4207196078863789E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>6.2584333906890624E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>6.2585351250478746E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>4.9688448094330623E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>3.9169197815884502E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>2.8936564233870751E-2</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>0.43742545187631809</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.1342968686077631</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>8.3975133697397411E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>6.2584401327768976E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>6.2585308600291559E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>4.9688487391808728E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>3.8664178558249968E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>2.8651083262521731E-2</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>-8.755718086849551E-3</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>2.3279916153339769E-2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>5.6409029581301617E-3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>-2.7324249209350268E-3</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>-1.9794980109821211E-2</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>1.120244551803429E-3</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>-7.4492655450395344E-3</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>1.04477684067939E-2</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="8" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.12239999999999999</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.1115</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>8.2899999999999988E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>4.9699999999999987E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.73521756849209374</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.19358377263576801</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.13358719126336441</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>5.7235902050695002E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.12614516137619891</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>6.5102849654267464E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>3.7739831977805227E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>2.6189385665128101E-2</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3">
         <v>1.80818252981386E-2</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.38681093240544878</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.18879120662482121</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.13667165089052591</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>5.5437810585807948E-2</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.13426785555344589</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>5.8320174655700233E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>3.7086210520198407E-2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>2.6189385665128101E-2</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3">
         <v>1.8431977280881289E-2</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.97716286610985992</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.1422968603605187</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>8.5078057489203857E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>6.2585447093410504E-2</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>6.2585323326220244E-2</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>4.9688053579905238E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>4.048837480116136E-2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>2.6099615169590602E-2</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3">
         <v>2.1012305773121499E-2</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.46191645674134041</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.1383723362659911</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>8.460428328515969E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>6.2585465453893457E-2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>6.2585309109019147E-2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>4.9688082128456108E-2</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>4.0300373197584283E-2</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>2.6099615169590602E-2</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3">
         <v>2.1181129447852279E-2</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>-7.5105524335891516E-2</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>5.0418870358830081E-2</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>5.2067367605366253E-2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>-7.1476548680855026E-3</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>7.1682546444426801E-2</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>8.6320925272441174E-3</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>-3.2141626773858618E-3</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>8.9770495537499356E-5</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
         <v>-2.7491521669709899E-3</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>0.12239999999999999</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.1115</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>8.2899999999999988E-2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>4.9699999999999987E-2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.54950269323757506</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>0.14391092249824419</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>9.2569949830438439E-2</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>6.8993420758902579E-2</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>8.2353871655827499E-2</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
         <v>4.8973602376735301E-2</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>4.2738922502138801E-2</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>2.7861605952710339E-2</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>1.0329865068093899E-2</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.35899305639953599</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.13873329310685431</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>9.1176118703288012E-2</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>7.0136038895324423E-2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>8.3377202283063709E-2</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
         <v>4.9539077072801398E-2</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>4.2738922502138801E-2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>2.7570305271609211E-2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <v>1.0329865068093899E-2</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>0.92918598376392636</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>0.1360704089349202</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>8.2879514049080935E-2</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>6.2585563237817651E-2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>6.2585604812565698E-2</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
         <v>3.9936119698368099E-2</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>2.5647463501600298E-2</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>1.98817537264236E-2</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>2.09312803769931E-2</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>0.51503096397483916</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>0.1315299055389719</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>8.2879389782668622E-2</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>6.2585499806930109E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>6.2585544451974215E-2</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
         <v>3.9521330851512562E-2</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>2.5647463501600291E-2</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>1.9864529281411369E-2</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>2.09312803769931E-2</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>-0.1560379075753032</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>7.2033875678823578E-3</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>8.2967289206193895E-3</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>7.5505390883943146E-3</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>2.079165783108949E-2</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
         <v>1.0017746221288841E-2</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <v>1.709145900053851E-2</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="8">
         <v>7.7057759901978384E-3</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <v>-1.0601415308899201E-2</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>95</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>5</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>1</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>657</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>70</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>21</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>12</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>8</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>1</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <v>0</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>98</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>19</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>38</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>22</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>9</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>7</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>7</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>4</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>1</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>0</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>134</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>39</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>42</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>22</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>18</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>21</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>6</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>3</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
         <v>4</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>99</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>51</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>55</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>35</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>28</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>26</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <v>4</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>6</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>9</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
         <v>3</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7017,6 +6981,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G3:P3">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:P4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:P5">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:P6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G7:P7">
     <cfRule type="cellIs" dxfId="9" priority="39" operator="lessThan">
       <formula>0</formula>
@@ -7025,56 +7037,56 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:P3">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:P4">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:P6">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G8:P8">
     <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:P9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:P10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:P11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:P12">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7093,54 +7105,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:P9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:P10">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:P11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:P12">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G14:P14">
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -7191,186 +7155,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:P18">
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:P20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:P21">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:P22">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:P23">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:P24">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:P26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:P27">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:P28">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:P29">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:P30">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:P32">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:P33">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:P34">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:P35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:P36">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7389,6 +7173,66 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G20:P20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:P21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:P22">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:P23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:P24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G25:P25">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
@@ -7397,6 +7241,66 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G26:P26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:P27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:P28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:P29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:P30">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G31:P31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
@@ -7405,6 +7309,66 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G32:P32">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:P33">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:P34">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:P35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:P36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>